--- a/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DB8BDEF-C59F-4797-9C78-FBB3F98DD1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED940C2-A3CD-4F36-A786-AD9F35586575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1B0A127C-6EE9-4A37-ACBD-3DF6FDBD9B6B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62D57EB2-335F-4D01-A49B-34D234017FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>93,53%</t>
+    <t>93,42%</t>
   </si>
   <si>
     <t>97,22%</t>
@@ -107,19 +107,19 @@
     <t>4,3%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>4,32%</t>
@@ -128,7 +128,7 @@
     <t>2,78%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1630 +140,1666 @@
     <t>87,99%</t>
   </si>
   <si>
-    <t>84,81%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
   </si>
   <si>
     <t>90,94%</t>
   </si>
   <si>
-    <t>89,78%</t>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>82,43%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,52%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>86,98%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2015 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>12,93%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
   </si>
   <si>
     <t>11,66%</t>
@@ -2199,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A904AB-235C-44E1-9EB0-9B318B72EC69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8A0CAB-137C-4C6E-B197-32DAE24BF306}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3098,13 +3134,13 @@
         <v>255466</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -3113,13 +3149,13 @@
         <v>263061</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -3128,13 +3164,13 @@
         <v>518528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3149,13 +3185,13 @@
         <v>15345</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>117</v>
+        <v>65</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -3164,13 +3200,13 @@
         <v>15083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>122</v>
+        <v>62</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -3179,13 +3215,13 @@
         <v>30427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3277,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3253,13 +3289,13 @@
         <v>580966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>572</v>
@@ -3268,13 +3304,13 @@
         <v>586489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>1137</v>
@@ -3283,13 +3319,13 @@
         <v>1167456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3340,13 @@
         <v>34061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -3319,13 +3355,13 @@
         <v>50597</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
@@ -3334,13 +3370,13 @@
         <v>84658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,7 +3432,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3408,13 +3444,13 @@
         <v>686376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="H25" s="7">
         <v>712</v>
@@ -3423,13 +3459,13 @@
         <v>750690</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M25" s="7">
         <v>1390</v>
@@ -3438,13 +3474,13 @@
         <v>1437066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3495,13 @@
         <v>56537</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -3474,13 +3510,13 @@
         <v>32821</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3489,13 +3525,13 @@
         <v>89358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3563,13 +3599,13 @@
         <v>3042542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>3108</v>
@@ -3578,13 +3614,13 @@
         <v>3185936</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>18</v>
+        <v>158</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>6094</v>
@@ -3593,13 +3629,13 @@
         <v>6228477</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,13 +3650,13 @@
         <v>233120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -3629,13 +3665,13 @@
         <v>192129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>29</v>
+        <v>168</v>
       </c>
       <c r="M29" s="7">
         <v>415</v>
@@ -3644,13 +3680,13 @@
         <v>425249</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3706,7 +3742,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +3766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D30F35-53A7-4AA7-BBCB-8EDCA4FD49E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17551BF0-ECDB-4948-8E61-93449085972D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3747,7 +3783,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3852,39 +3888,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,39 +3933,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,39 +3978,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +4027,13 @@
         <v>445868</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H7" s="7">
         <v>435</v>
@@ -4006,13 +4042,13 @@
         <v>474804</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M7" s="7">
         <v>853</v>
@@ -4021,13 +4057,13 @@
         <v>920672</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4078,13 @@
         <v>59659</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -4057,13 +4093,13 @@
         <v>48961</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -4072,13 +4108,13 @@
         <v>108620</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4146,13 +4182,13 @@
         <v>310467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H10" s="7">
         <v>301</v>
@@ -4161,13 +4197,13 @@
         <v>324171</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M10" s="7">
         <v>607</v>
@@ -4176,13 +4212,13 @@
         <v>634638</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4233,13 @@
         <v>13579</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4212,13 +4248,13 @@
         <v>16849</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -4227,13 +4263,13 @@
         <v>30428</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>207</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,13 +4337,13 @@
         <v>603174</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>585</v>
@@ -4316,13 +4352,13 @@
         <v>630047</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1151</v>
@@ -4331,13 +4367,13 @@
         <v>1233221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>217</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4388,13 @@
         <v>65546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -4367,13 +4403,13 @@
         <v>45245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -4382,13 +4418,13 @@
         <v>110791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>225</v>
+        <v>87</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4492,13 @@
         <v>203666</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>228</v>
+        <v>37</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>224</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -4471,13 +4507,13 @@
         <v>204540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>386</v>
@@ -4486,13 +4522,13 @@
         <v>408207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4543,13 @@
         <v>8952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4522,13 +4558,13 @@
         <v>15051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4537,13 +4573,13 @@
         <v>24002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>237</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4647,13 @@
         <v>259211</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -4629,10 +4665,10 @@
         <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
@@ -4641,13 +4677,13 @@
         <v>526610</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4698,13 @@
         <v>14770</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4680,10 +4716,10 @@
         <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -4692,13 +4728,13 @@
         <v>26424</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,7 +4790,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4766,13 +4802,13 @@
         <v>620079</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H22" s="7">
         <v>593</v>
@@ -4781,13 +4817,13 @@
         <v>646978</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>260</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>17</v>
       </c>
       <c r="M22" s="7">
         <v>1170</v>
@@ -4796,13 +4832,13 @@
         <v>1267057</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,13 +4853,13 @@
         <v>41795</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>208</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -4832,13 +4868,13 @@
         <v>42834</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -4847,13 +4883,13 @@
         <v>84629</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4909,7 +4945,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4924,10 +4960,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>273</v>
+        <v>212</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H25" s="7">
         <v>733</v>
@@ -4936,13 +4972,13 @@
         <v>797081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>275</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M25" s="7">
         <v>1429</v>
@@ -4951,13 +4987,13 @@
         <v>1551550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>274</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,10 +5011,10 @@
         <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>219</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -4987,13 +5023,13 @@
         <v>26772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>117</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5002,13 +5038,13 @@
         <v>51401</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5112,13 @@
         <v>3196935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H28" s="7">
         <v>3102</v>
@@ -5091,13 +5127,13 @@
         <v>3345019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>290</v>
+        <v>124</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="M28" s="7">
         <v>6100</v>
@@ -5106,13 +5142,13 @@
         <v>6541954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,13 +5163,13 @@
         <v>228930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
@@ -5142,13 +5178,13 @@
         <v>207366</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>298</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M29" s="7">
         <v>400</v>
@@ -5157,13 +5193,13 @@
         <v>436296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5219,7 +5255,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -5243,7 +5279,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BA660AB-40C8-462C-912F-D98F5601F9B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D668B30A-F26F-4917-8D9B-A54D7BD001BE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5260,7 +5296,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5367,13 +5403,13 @@
         <v>255066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>306</v>
+        <v>240</v>
       </c>
       <c r="H4" s="7">
         <v>253</v>
@@ -5382,13 +5418,13 @@
         <v>264355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>134</v>
+        <v>302</v>
       </c>
       <c r="M4" s="7">
         <v>486</v>
@@ -5397,13 +5433,13 @@
         <v>519421</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5418,13 +5454,13 @@
         <v>37635</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5433,13 +5469,13 @@
         <v>24348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -5448,13 +5484,13 @@
         <v>61983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5522,13 +5558,13 @@
         <v>427361</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="H7" s="7">
         <v>435</v>
@@ -5537,13 +5573,13 @@
         <v>470897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="M7" s="7">
         <v>839</v>
@@ -5552,13 +5588,13 @@
         <v>898258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5573,13 +5609,13 @@
         <v>74131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -5588,13 +5624,13 @@
         <v>52187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -5603,13 +5639,13 @@
         <v>126318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,13 +5713,13 @@
         <v>306484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -5692,13 +5728,13 @@
         <v>330545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>243</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M10" s="7">
         <v>649</v>
@@ -5707,13 +5743,13 @@
         <v>637029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5728,13 +5764,13 @@
         <v>11112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>341</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5743,13 +5779,13 @@
         <v>5764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5758,13 +5794,13 @@
         <v>16876</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5832,13 +5868,13 @@
         <v>329230</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -5847,13 +5883,13 @@
         <v>360457</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M13" s="7">
         <v>647</v>
@@ -5862,13 +5898,13 @@
         <v>689687</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5883,13 +5919,13 @@
         <v>40734</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5898,13 +5934,13 @@
         <v>25945</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -5913,13 +5949,13 @@
         <v>66679</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5987,13 +6023,13 @@
         <v>207643</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H16" s="7">
         <v>220</v>
@@ -6002,13 +6038,13 @@
         <v>215893</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -6017,13 +6053,13 @@
         <v>423536</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6038,13 +6074,13 @@
         <v>3578</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6053,13 +6089,13 @@
         <v>2694</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6172,13 +6208,13 @@
         <v>479381</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>392</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6193,13 +6229,13 @@
         <v>36277</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -6208,13 +6244,13 @@
         <v>20580</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -6223,13 +6259,13 @@
         <v>56857</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6285,7 +6321,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6297,13 +6333,13 @@
         <v>602042</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="H22" s="7">
         <v>591</v>
@@ -6312,13 +6348,13 @@
         <v>632812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>407</v>
+        <v>229</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>95</v>
+        <v>406</v>
       </c>
       <c r="M22" s="7">
         <v>1121</v>
@@ -6327,13 +6363,13 @@
         <v>1234854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>411</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6348,13 +6384,13 @@
         <v>52568</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -6363,13 +6399,13 @@
         <v>56396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>238</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>104</v>
+        <v>412</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -6378,13 +6414,13 @@
         <v>108964</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>290</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6440,7 +6476,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6452,13 +6488,13 @@
         <v>753393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H25" s="7">
         <v>733</v>
@@ -6467,13 +6503,13 @@
         <v>803550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>425</v>
+        <v>335</v>
       </c>
       <c r="M25" s="7">
         <v>1460</v>
@@ -6482,13 +6518,13 @@
         <v>1556943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6503,13 +6539,13 @@
         <v>23348</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6518,13 +6554,13 @@
         <v>22617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>433</v>
+        <v>344</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6533,13 +6569,13 @@
         <v>45965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6607,13 +6643,13 @@
         <v>3108065</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="H28" s="7">
         <v>3132</v>
@@ -6622,28 +6658,28 @@
         <v>3331043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>51</v>
+        <v>437</v>
       </c>
       <c r="M28" s="7">
         <v>6097</v>
       </c>
       <c r="N28" s="7">
-        <v>6439108</v>
+        <v>6439109</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>442</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6658,13 +6694,13 @@
         <v>279383</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -6673,13 +6709,13 @@
         <v>210532</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>60</v>
+        <v>443</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="M29" s="7">
         <v>462</v>
@@ -6688,13 +6724,13 @@
         <v>489915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,7 +6772,7 @@
         <v>6559</v>
       </c>
       <c r="N30" s="7">
-        <v>6929023</v>
+        <v>6929024</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6750,7 +6786,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6774,7 +6810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{576EF2EB-6EFC-47E5-AB4A-2732590F6F96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9434ADA-0EF5-4CE5-AB71-994F3411410D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6791,7 +6827,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6898,13 +6934,13 @@
         <v>246467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H4" s="7">
         <v>504</v>
@@ -6913,13 +6949,13 @@
         <v>253671</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="M4" s="7">
         <v>817</v>
@@ -6928,10 +6964,10 @@
         <v>500136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>435</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>17</v>
@@ -6949,13 +6985,13 @@
         <v>13831</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -6964,13 +7000,13 @@
         <v>17732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -6979,13 +7015,13 @@
         <v>31564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>346</v>
+        <v>442</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7053,13 +7089,13 @@
         <v>367249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>570</v>
@@ -7068,13 +7104,13 @@
         <v>438074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>834</v>
@@ -7083,13 +7119,13 @@
         <v>805324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7104,13 +7140,13 @@
         <v>152048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -7119,13 +7155,13 @@
         <v>116492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -7134,13 +7170,13 @@
         <v>268540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7244,13 @@
         <v>312685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>344</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>502</v>
@@ -7223,10 +7259,10 @@
         <v>347549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>217</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>482</v>
@@ -7241,10 +7277,10 @@
         <v>483</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7295,13 @@
         <v>9555</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>350</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -7274,13 +7310,13 @@
         <v>25735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>225</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>419</v>
+        <v>490</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -7289,13 +7325,13 @@
         <v>35291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>490</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7399,13 @@
         <v>298278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>491</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>552</v>
@@ -7378,13 +7414,13 @@
         <v>388147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>823</v>
@@ -7393,13 +7429,13 @@
         <v>686425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,7 +7450,7 @@
         <v>23962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>500</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>501</v>
@@ -7518,13 +7554,13 @@
         <v>192385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>482</v>
@@ -7533,13 +7569,13 @@
         <v>225514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M16" s="7">
         <v>754</v>
@@ -7548,13 +7584,13 @@
         <v>417898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,13 +7605,13 @@
         <v>4363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>202</v>
+        <v>517</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -7584,13 +7620,13 @@
         <v>5982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7599,13 +7635,13 @@
         <v>10346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7673,13 +7709,13 @@
         <v>243167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>525</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -7688,13 +7724,13 @@
         <v>255291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="M19" s="7">
         <v>749</v>
@@ -7703,13 +7739,13 @@
         <v>498458</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7724,13 +7760,13 @@
         <v>34056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -7739,13 +7775,13 @@
         <v>20331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -7754,13 +7790,13 @@
         <v>54387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7816,7 +7852,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7828,13 +7864,13 @@
         <v>565343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>543</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>36</v>
+        <v>544</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="H22" s="7">
         <v>852</v>
@@ -7843,13 +7879,13 @@
         <v>730953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>546</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="M22" s="7">
         <v>1395</v>
@@ -7858,13 +7894,13 @@
         <v>1296296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7879,13 +7915,13 @@
         <v>62411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>226</v>
+        <v>551</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>46</v>
+        <v>553</v>
       </c>
       <c r="H23" s="7">
         <v>108</v>
@@ -7894,13 +7930,13 @@
         <v>73250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>554</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
@@ -7909,13 +7945,13 @@
         <v>135661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7971,7 +8007,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -7983,13 +8019,13 @@
         <v>722031</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="H25" s="7">
         <v>916</v>
@@ -7998,13 +8034,13 @@
         <v>753580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="M25" s="7">
         <v>1555</v>
@@ -8013,13 +8049,13 @@
         <v>1475611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8034,13 +8070,13 @@
         <v>137397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -8049,13 +8085,13 @@
         <v>114854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
@@ -8064,13 +8100,13 @@
         <v>252251</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8174,13 @@
         <v>2947604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>324</v>
+        <v>577</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="H28" s="7">
         <v>4800</v>
@@ -8153,13 +8189,13 @@
         <v>3392778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>571</v>
+        <v>582</v>
       </c>
       <c r="M28" s="7">
         <v>7776</v>
@@ -8168,13 +8204,13 @@
         <v>6340381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>574</v>
+        <v>585</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8225,13 @@
         <v>437624</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>586</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="H29" s="7">
         <v>563</v>
@@ -8204,13 +8240,13 @@
         <v>414786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="M29" s="7">
         <v>963</v>
@@ -8219,13 +8255,13 @@
         <v>852411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,7 +8317,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DED940C2-A3CD-4F36-A786-AD9F35586575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2AE86D-6A3C-482F-A498-4D21458A62BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{62D57EB2-335F-4D01-A49B-34D234017FBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF5137C0-B4F6-4575-B09E-884EFDFE034B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -77,1753 +77,1777 @@
     <t>95,7%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>86,06%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,9%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>98,31%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,52%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,97%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
+    <t>16,4%</t>
   </si>
   <si>
     <t>87,07%</t>
   </si>
   <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>89,11%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>90,32%</t>
   </si>
   <si>
     <t>88,15%</t>
   </si>
   <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
   </si>
   <si>
     <t>12,93%</t>
   </si>
   <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
   </si>
   <si>
     <t>10,89%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>9,68%</t>
   </si>
   <si>
     <t>11,85%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
   </si>
 </sst>
 </file>
@@ -2235,7 +2259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8A0CAB-137C-4C6E-B197-32DAE24BF306}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E97276-2604-40AE-A18C-12EDF5642EDC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3134,13 +3158,13 @@
         <v>255466</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>255</v>
@@ -3149,13 +3173,13 @@
         <v>263061</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>505</v>
@@ -3164,13 +3188,13 @@
         <v>518528</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3209,13 @@
         <v>15345</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>15</v>
@@ -3200,13 +3224,13 @@
         <v>15083</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -3215,13 +3239,13 @@
         <v>30427</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3277,7 +3301,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3289,13 +3313,13 @@
         <v>580966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="H22" s="7">
         <v>572</v>
@@ -3304,13 +3328,13 @@
         <v>586489</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
         <v>1137</v>
@@ -3319,13 +3343,13 @@
         <v>1167456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3364,13 @@
         <v>34061</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>48</v>
@@ -3355,13 +3379,13 @@
         <v>50597</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>81</v>
@@ -3370,13 +3394,13 @@
         <v>84658</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3432,7 +3456,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3444,13 +3468,13 @@
         <v>686376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>712</v>
@@ -3459,13 +3483,13 @@
         <v>750690</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>1390</v>
@@ -3474,13 +3498,13 @@
         <v>1437066</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3519,13 @@
         <v>56537</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -3510,13 +3534,13 @@
         <v>32821</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3525,13 +3549,13 @@
         <v>89358</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3623,13 @@
         <v>3042542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="H28" s="7">
         <v>3108</v>
@@ -3614,13 +3638,13 @@
         <v>3185936</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M28" s="7">
         <v>6094</v>
@@ -3629,13 +3653,13 @@
         <v>6228477</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3674,13 @@
         <v>233120</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>104</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>188</v>
@@ -3665,13 +3689,13 @@
         <v>192129</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>415</v>
@@ -3680,13 +3704,13 @@
         <v>425249</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,7 +3766,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -3766,7 +3790,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17551BF0-ECDB-4948-8E61-93449085972D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0510CB1-D268-44E0-95E7-8E4BF37E1459}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3783,7 +3807,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3888,39 +3912,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,39 +3957,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,39 +4002,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4051,13 @@
         <v>445868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="H7" s="7">
         <v>435</v>
@@ -4042,13 +4066,13 @@
         <v>474804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>853</v>
@@ -4057,13 +4081,13 @@
         <v>920672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4102,13 @@
         <v>59659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -4093,13 +4117,13 @@
         <v>48961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -4108,10 +4132,10 @@
         <v>108620</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>192</v>
@@ -4182,7 +4206,7 @@
         <v>310467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>193</v>
@@ -4215,10 +4239,10 @@
         <v>198</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>77</v>
+        <v>199</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,13 +4257,13 @@
         <v>13579</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4248,13 +4272,13 @@
         <v>16849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -4263,13 +4287,13 @@
         <v>30428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4337,13 +4361,13 @@
         <v>603174</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H13" s="7">
         <v>585</v>
@@ -4352,13 +4376,13 @@
         <v>630047</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M13" s="7">
         <v>1151</v>
@@ -4367,13 +4391,13 @@
         <v>1233221</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,13 +4412,13 @@
         <v>65546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -4403,13 +4427,13 @@
         <v>45245</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>101</v>
@@ -4418,13 +4442,13 @@
         <v>110791</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4492,13 +4516,13 @@
         <v>203666</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>37</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -4507,13 +4531,13 @@
         <v>204540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>386</v>
@@ -4522,13 +4546,13 @@
         <v>408207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4543,13 +4567,13 @@
         <v>8952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>13</v>
@@ -4558,13 +4582,13 @@
         <v>15051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4573,13 +4597,13 @@
         <v>24002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4647,13 +4671,13 @@
         <v>259211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -4665,10 +4689,10 @@
         <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
@@ -4677,13 +4701,13 @@
         <v>526610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4698,13 +4722,13 @@
         <v>14770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4716,10 +4740,10 @@
         <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -4790,7 +4814,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4823,7 +4847,7 @@
         <v>259</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
       <c r="M22" s="7">
         <v>1170</v>
@@ -4832,10 +4856,10 @@
         <v>1267057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>262</v>
@@ -4871,10 +4895,10 @@
         <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>27</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -4883,13 +4907,13 @@
         <v>84629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>270</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,7 +4969,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4960,10 +4984,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H25" s="7">
         <v>733</v>
@@ -4972,13 +4996,13 @@
         <v>797081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>273</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>1429</v>
@@ -4987,13 +5011,13 @@
         <v>1551550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>275</v>
+        <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,10 +5035,10 @@
         <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>219</v>
+        <v>279</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -5023,13 +5047,13 @@
         <v>26772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5038,13 +5062,13 @@
         <v>51401</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>282</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5112,13 +5136,13 @@
         <v>3196935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H28" s="7">
         <v>3102</v>
@@ -5127,13 +5151,13 @@
         <v>3345019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>124</v>
+        <v>288</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="M28" s="7">
         <v>6100</v>
@@ -5142,13 +5166,13 @@
         <v>6541954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5187,13 @@
         <v>228930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
@@ -5178,13 +5202,13 @@
         <v>207366</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>130</v>
+        <v>297</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M29" s="7">
         <v>400</v>
@@ -5193,13 +5217,13 @@
         <v>436296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>164</v>
+        <v>300</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5255,7 +5279,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5279,7 +5303,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D668B30A-F26F-4917-8D9B-A54D7BD001BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4395BDE3-74E1-407A-986A-83E105C271F2}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5296,7 +5320,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5403,13 +5427,13 @@
         <v>255066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>253</v>
@@ -5418,13 +5442,13 @@
         <v>264355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>301</v>
+        <v>32</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>302</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>486</v>
@@ -5433,13 +5457,13 @@
         <v>519421</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5478,13 @@
         <v>37635</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5469,13 +5493,13 @@
         <v>24348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>309</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>310</v>
+        <v>41</v>
       </c>
       <c r="M5" s="7">
         <v>56</v>
@@ -5484,13 +5508,13 @@
         <v>61983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,13 +5582,13 @@
         <v>427361</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="H7" s="7">
         <v>435</v>
@@ -5573,13 +5597,13 @@
         <v>470897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M7" s="7">
         <v>839</v>
@@ -5588,13 +5612,13 @@
         <v>898258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,13 +5633,13 @@
         <v>74131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -5624,13 +5648,13 @@
         <v>52187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -5639,13 +5663,13 @@
         <v>126318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,13 +5737,13 @@
         <v>306484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -5728,13 +5752,13 @@
         <v>330545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>649</v>
@@ -5743,13 +5767,13 @@
         <v>637029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5764,13 +5788,13 @@
         <v>11112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5779,13 +5803,13 @@
         <v>5764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5794,13 +5818,13 @@
         <v>16876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,13 +5892,13 @@
         <v>329230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -5883,10 +5907,10 @@
         <v>360457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>353</v>
+        <v>289</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>354</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>355</v>
@@ -5934,13 +5958,13 @@
         <v>25945</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>363</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>364</v>
+        <v>224</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -5949,13 +5973,13 @@
         <v>66679</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6023,13 +6047,13 @@
         <v>207643</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H16" s="7">
         <v>220</v>
@@ -6038,13 +6062,13 @@
         <v>215893</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -6053,13 +6077,13 @@
         <v>423536</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6074,13 +6098,13 @@
         <v>3578</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6089,13 +6113,13 @@
         <v>2694</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6104,13 +6128,13 @@
         <v>6272</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6202,13 @@
         <v>226846</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -6193,13 +6217,13 @@
         <v>252535</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M19" s="7">
         <v>466</v>
@@ -6208,13 +6232,13 @@
         <v>479381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>390</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6253,13 @@
         <v>36277</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -6244,13 +6268,13 @@
         <v>20580</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -6259,7 +6283,7 @@
         <v>56857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>131</v>
+        <v>399</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>400</v>
@@ -6321,7 +6345,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6348,13 +6372,13 @@
         <v>632812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>229</v>
+        <v>405</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M22" s="7">
         <v>1121</v>
@@ -6363,13 +6387,13 @@
         <v>1234854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6384,13 +6408,13 @@
         <v>52568</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -6399,13 +6423,13 @@
         <v>56396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -6414,13 +6438,13 @@
         <v>108964</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6476,7 +6500,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -6488,13 +6512,13 @@
         <v>753393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>417</v>
+        <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="H25" s="7">
         <v>733</v>
@@ -6503,13 +6527,13 @@
         <v>803550</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>419</v>
+        <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>335</v>
+        <v>423</v>
       </c>
       <c r="M25" s="7">
         <v>1460</v>
@@ -6518,13 +6542,13 @@
         <v>1556943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6539,13 +6563,13 @@
         <v>23348</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>426</v>
+        <v>85</v>
       </c>
       <c r="H26" s="7">
         <v>22</v>
@@ -6554,13 +6578,13 @@
         <v>22617</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>427</v>
+        <v>67</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>344</v>
+        <v>429</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6569,13 +6593,13 @@
         <v>45965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6643,13 +6667,13 @@
         <v>3108065</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H28" s="7">
         <v>3132</v>
@@ -6658,28 +6682,28 @@
         <v>3331043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M28" s="7">
         <v>6097</v>
       </c>
       <c r="N28" s="7">
-        <v>6439109</v>
+        <v>6439108</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>439</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>12</v>
+        <v>440</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6694,13 +6718,13 @@
         <v>279383</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>441</v>
+        <v>42</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -6709,13 +6733,13 @@
         <v>210532</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M29" s="7">
         <v>462</v>
@@ -6724,13 +6748,13 @@
         <v>489915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>201</v>
+        <v>447</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>23</v>
+        <v>449</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6772,7 +6796,7 @@
         <v>6559</v>
       </c>
       <c r="N30" s="7">
-        <v>6929024</v>
+        <v>6929023</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -6786,7 +6810,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -6810,7 +6834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9434ADA-0EF5-4CE5-AB71-994F3411410D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86797E1-BE17-4A75-ADD4-2EE5ECFE2848}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6827,7 +6851,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6934,13 +6958,13 @@
         <v>246467</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="H4" s="7">
         <v>504</v>
@@ -6949,13 +6973,13 @@
         <v>253671</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="M4" s="7">
         <v>817</v>
@@ -6964,13 +6988,13 @@
         <v>500136</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>402</v>
+        <v>457</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6985,13 +7009,13 @@
         <v>13831</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
@@ -7000,13 +7024,13 @@
         <v>17732</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
@@ -7015,13 +7039,13 @@
         <v>31564</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>465</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7089,13 +7113,13 @@
         <v>367249</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="H7" s="7">
         <v>570</v>
@@ -7104,13 +7128,13 @@
         <v>438074</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="M7" s="7">
         <v>834</v>
@@ -7119,13 +7143,13 @@
         <v>805324</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7140,13 +7164,13 @@
         <v>152048</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
@@ -7155,13 +7179,13 @@
         <v>116492</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
@@ -7170,13 +7194,13 @@
         <v>268540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7244,13 +7268,13 @@
         <v>312685</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>502</v>
@@ -7259,13 +7283,13 @@
         <v>347549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>849</v>
@@ -7274,13 +7298,13 @@
         <v>660233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>358</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7295,13 +7319,13 @@
         <v>9555</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -7310,13 +7334,13 @@
         <v>25735</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
@@ -7325,13 +7349,13 @@
         <v>35291</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>492</v>
+        <v>501</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7423,13 @@
         <v>298278</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>503</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="H13" s="7">
         <v>552</v>
@@ -7414,13 +7438,13 @@
         <v>388147</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="M13" s="7">
         <v>823</v>
@@ -7429,13 +7453,13 @@
         <v>686425</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7450,13 +7474,13 @@
         <v>23962</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>512</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -7465,13 +7489,13 @@
         <v>40409</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
@@ -7480,13 +7504,13 @@
         <v>64371</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7578,13 @@
         <v>192385</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>510</v>
+        <v>164</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>482</v>
@@ -7569,13 +7593,13 @@
         <v>225514</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="M16" s="7">
         <v>754</v>
@@ -7584,13 +7608,13 @@
         <v>417898</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7629,13 @@
         <v>4363</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>519</v>
+        <v>171</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -7620,13 +7644,13 @@
         <v>5982</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7635,13 +7659,13 @@
         <v>10346</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7709,13 +7733,13 @@
         <v>243167</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>527</v>
+        <v>112</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
@@ -7724,13 +7748,13 @@
         <v>255291</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="M19" s="7">
         <v>749</v>
@@ -7739,13 +7763,13 @@
         <v>498458</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>533</v>
+        <v>542</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7760,13 +7784,13 @@
         <v>34056</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>534</v>
+        <v>543</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>535</v>
+        <v>122</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -7775,13 +7799,13 @@
         <v>20331</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
@@ -7790,13 +7814,13 @@
         <v>54387</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7852,7 +7876,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7864,13 +7888,13 @@
         <v>565343</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="H22" s="7">
         <v>852</v>
@@ -7879,13 +7903,13 @@
         <v>730953</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>239</v>
+        <v>556</v>
       </c>
       <c r="M22" s="7">
         <v>1395</v>
@@ -7894,13 +7918,13 @@
         <v>1296296</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>548</v>
+        <v>557</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7915,13 +7939,13 @@
         <v>62411</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="H23" s="7">
         <v>108</v>
@@ -7930,13 +7954,13 @@
         <v>73250</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>564</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
@@ -7945,13 +7969,13 @@
         <v>135661</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,7 +8031,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -8019,13 +8043,13 @@
         <v>722031</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="H25" s="7">
         <v>916</v>
@@ -8034,13 +8058,13 @@
         <v>753580</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="M25" s="7">
         <v>1555</v>
@@ -8049,13 +8073,13 @@
         <v>1475611</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8070,13 +8094,13 @@
         <v>137397</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="H26" s="7">
         <v>146</v>
@@ -8085,13 +8109,13 @@
         <v>114854</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="M26" s="7">
         <v>269</v>
@@ -8100,13 +8124,13 @@
         <v>252251</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8174,13 +8198,13 @@
         <v>2947604</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="H28" s="7">
         <v>4800</v>
@@ -8189,13 +8213,13 @@
         <v>3392778</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>581</v>
+        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="M28" s="7">
         <v>7776</v>
@@ -8204,13 +8228,13 @@
         <v>6340381</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8225,13 +8249,13 @@
         <v>437624</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="H29" s="7">
         <v>563</v>
@@ -8240,13 +8264,13 @@
         <v>414786</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>591</v>
+        <v>331</v>
       </c>
       <c r="M29" s="7">
         <v>963</v>
@@ -8255,13 +8279,13 @@
         <v>852411</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8317,7 +8341,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F2AE86D-6A3C-482F-A498-4D21458A62BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CEF9330-008D-4653-A195-81A7B15F165B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{DF5137C0-B4F6-4575-B09E-884EFDFE034B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A9E3CEA9-EC01-4E8E-9BD8-8E731788587E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="604">
   <si>
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2007 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -575,7 +575,58 @@
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2012 (Tasa respuesta: 99,89%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>81,83%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
   </si>
   <si>
     <t>88,2%</t>
@@ -668,477 +719,459 @@
     <t>6,56%</t>
   </si>
   <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>90,17%</t>
   </si>
   <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
   <si>
     <t>9,83%</t>
   </si>
   <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2016 (Tasa respuesta: 99,85%)</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
     <t>8,82%</t>
   </si>
   <si>
     <t>6,81%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
     <t>98,31%</t>
   </si>
   <si>
@@ -1394,460 +1427,430 @@
     <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana en 2023 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
   </si>
   <si>
     <t>92,08%</t>
   </si>
   <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
   </si>
   <si>
     <t>7,92%</t>
   </si>
   <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>77,72%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>62,1%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>87,81%</t>
   </si>
   <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>94,67%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>12,19%</t>
   </si>
   <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>88,08%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
 </sst>
 </file>
@@ -2259,7 +2262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E97276-2604-40AE-A18C-12EDF5642EDC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54140FFB-603C-4D95-B97B-004AF5B4A0A0}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3620,7 +3623,7 @@
         <v>2986</v>
       </c>
       <c r="D28" s="7">
-        <v>3042542</v>
+        <v>3042541</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>160</v>
@@ -3722,7 +3725,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3275662</v>
+        <v>3275661</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -3790,7 +3793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0510CB1-D268-44E0-95E7-8E4BF37E1459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26E0448-68EF-49DA-A396-8244E0473A7C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3908,43 +3911,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>232</v>
+      </c>
+      <c r="D4" s="7">
+        <v>241193</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>228</v>
+      </c>
+      <c r="I4" s="7">
+        <v>254836</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>460</v>
+      </c>
+      <c r="N4" s="7">
+        <v>496029</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3953,43 +3962,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="7">
+        <v>53545</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="I5" s="7">
+        <v>32409</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="N5" s="7">
+        <v>85954</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3998,43 +4013,49 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,10 +4072,10 @@
         <v>445868</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>96</v>
@@ -4066,13 +4087,13 @@
         <v>474804</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>853</v>
@@ -4081,10 +4102,10 @@
         <v>920672</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>89</v>
@@ -4102,13 +4123,13 @@
         <v>59659</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -4117,13 +4138,13 @@
         <v>48961</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M8" s="7">
         <v>99</v>
@@ -4132,13 +4153,13 @@
         <v>108620</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>98</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,10 +4230,10 @@
         <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>301</v>
@@ -4221,13 +4242,13 @@
         <v>324171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>607</v>
@@ -4236,13 +4257,13 @@
         <v>634638</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,10 +4281,10 @@
         <v>154</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -4272,13 +4293,13 @@
         <v>16849</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="M11" s="7">
         <v>29</v>
@@ -4287,13 +4308,13 @@
         <v>30428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4355,49 +4376,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>566</v>
+        <v>334</v>
       </c>
       <c r="D13" s="7">
-        <v>603174</v>
+        <v>361981</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>210</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
-        <v>585</v>
+        <v>357</v>
       </c>
       <c r="I13" s="7">
-        <v>630047</v>
+        <v>375211</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
-        <v>1151</v>
+        <v>691</v>
       </c>
       <c r="N13" s="7">
-        <v>1233221</v>
+        <v>737192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>215</v>
+        <v>78</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4406,49 +4427,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="D14" s="7">
-        <v>65546</v>
+        <v>12001</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="H14" s="7">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>45245</v>
+        <v>12836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>220</v>
+        <v>235</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>222</v>
+        <v>237</v>
       </c>
       <c r="M14" s="7">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7">
-        <v>110791</v>
+        <v>24837</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>223</v>
+        <v>86</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4457,10 +4478,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4472,10 +4493,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>626</v>
+        <v>370</v>
       </c>
       <c r="I15" s="7">
-        <v>675292</v>
+        <v>388047</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4487,10 +4508,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1252</v>
+        <v>714</v>
       </c>
       <c r="N15" s="7">
-        <v>1344012</v>
+        <v>762029</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4516,13 +4537,13 @@
         <v>203666</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="H16" s="7">
         <v>199</v>
@@ -4531,13 +4552,13 @@
         <v>204540</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M16" s="7">
         <v>386</v>
@@ -4546,13 +4567,13 @@
         <v>408207</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,10 +4588,10 @@
         <v>8952</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>134</v>
@@ -4582,13 +4603,13 @@
         <v>15051</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -4597,13 +4618,13 @@
         <v>24002</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4692,13 @@
         <v>259211</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="H19" s="7">
         <v>256</v>
@@ -4689,10 +4710,10 @@
         <v>57</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="M19" s="7">
         <v>504</v>
@@ -4701,13 +4722,13 @@
         <v>526610</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4743,13 @@
         <v>14770</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>12</v>
@@ -4740,10 +4761,10 @@
         <v>66</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="M20" s="7">
         <v>25</v>
@@ -4752,13 +4773,13 @@
         <v>26424</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,16 +4844,16 @@
         <v>577</v>
       </c>
       <c r="D22" s="7">
-        <v>620079</v>
+        <v>620080</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H22" s="7">
         <v>593</v>
@@ -4841,13 +4862,13 @@
         <v>646978</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="M22" s="7">
         <v>1170</v>
@@ -4856,13 +4877,13 @@
         <v>1267057</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4877,13 +4898,13 @@
         <v>41795</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="H23" s="7">
         <v>39</v>
@@ -4892,13 +4913,13 @@
         <v>42834</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M23" s="7">
         <v>79</v>
@@ -4907,10 +4928,10 @@
         <v>84629</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>151</v>
@@ -4925,7 +4946,7 @@
         <v>617</v>
       </c>
       <c r="D24" s="7">
-        <v>661874</v>
+        <v>661875</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4984,10 +5005,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="H25" s="7">
         <v>733</v>
@@ -4996,13 +5017,13 @@
         <v>797081</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="M25" s="7">
         <v>1429</v>
@@ -5011,13 +5032,13 @@
         <v>1551550</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>226</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5035,10 +5056,10 @@
         <v>63</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="H26" s="7">
         <v>24</v>
@@ -5047,13 +5068,13 @@
         <v>26772</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="M26" s="7">
         <v>45</v>
@@ -5062,10 +5083,10 @@
         <v>51401</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>283</v>
+        <v>233</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>154</v>
@@ -5136,13 +5157,13 @@
         <v>3196935</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="H28" s="7">
         <v>3102</v>
@@ -5151,13 +5172,13 @@
         <v>3345019</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>6100</v>
@@ -5166,13 +5187,13 @@
         <v>6541954</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5187,13 +5208,13 @@
         <v>228930</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="H29" s="7">
         <v>190</v>
@@ -5202,13 +5223,13 @@
         <v>207366</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="M29" s="7">
         <v>400</v>
@@ -5217,13 +5238,13 @@
         <v>436296</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5303,7 +5324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4395BDE3-74E1-407A-986A-83E105C271F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{632EAB00-D698-401B-B0EF-0E3364A23950}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5320,7 +5341,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5427,10 +5448,10 @@
         <v>255066</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>96</v>
@@ -5442,7 +5463,7 @@
         <v>264355</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>32</v>
@@ -5457,13 +5478,13 @@
         <v>519421</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5478,13 +5499,13 @@
         <v>37635</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -5493,7 +5514,7 @@
         <v>24348</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>117</v>
@@ -5508,13 +5529,13 @@
         <v>61983</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5603,13 @@
         <v>427361</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>435</v>
@@ -5597,13 +5618,13 @@
         <v>470897</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="M7" s="7">
         <v>839</v>
@@ -5612,13 +5633,13 @@
         <v>898258</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,13 +5654,13 @@
         <v>74131</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="H8" s="7">
         <v>49</v>
@@ -5648,13 +5669,13 @@
         <v>52187</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>330</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>119</v>
@@ -5663,13 +5684,13 @@
         <v>126318</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>332</v>
+        <v>343</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>333</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5737,13 +5758,13 @@
         <v>306484</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="H10" s="7">
         <v>326</v>
@@ -5752,13 +5773,13 @@
         <v>330545</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="M10" s="7">
         <v>649</v>
@@ -5767,13 +5788,13 @@
         <v>637029</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,13 +5809,13 @@
         <v>11112</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -5803,13 +5824,13 @@
         <v>5764</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -5818,13 +5839,13 @@
         <v>16876</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5892,13 +5913,13 @@
         <v>329230</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="H13" s="7">
         <v>332</v>
@@ -5907,13 +5928,13 @@
         <v>360457</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>366</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="M13" s="7">
         <v>647</v>
@@ -5922,13 +5943,13 @@
         <v>689687</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>357</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5943,13 +5964,13 @@
         <v>40734</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -5958,13 +5979,13 @@
         <v>25945</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>224</v>
+        <v>374</v>
       </c>
       <c r="M14" s="7">
         <v>64</v>
@@ -5973,13 +5994,13 @@
         <v>66679</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>365</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6047,13 +6068,13 @@
         <v>207643</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H16" s="7">
         <v>220</v>
@@ -6062,13 +6083,13 @@
         <v>215893</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -6077,13 +6098,13 @@
         <v>423536</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6098,13 +6119,13 @@
         <v>3578</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6113,13 +6134,13 @@
         <v>2694</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -6128,13 +6149,13 @@
         <v>6272</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6223,13 @@
         <v>226846</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>242</v>
@@ -6217,13 +6238,13 @@
         <v>252535</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="M19" s="7">
         <v>466</v>
@@ -6232,13 +6253,13 @@
         <v>479381</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6274,13 @@
         <v>36277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="H20" s="7">
         <v>21</v>
@@ -6268,13 +6289,13 @@
         <v>20580</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="M20" s="7">
         <v>56</v>
@@ -6283,13 +6304,13 @@
         <v>56857</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>401</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6378,13 @@
         <v>602042</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>402</v>
+        <v>413</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="H22" s="7">
         <v>591</v>
@@ -6372,13 +6393,13 @@
         <v>632812</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="M22" s="7">
         <v>1121</v>
@@ -6387,13 +6408,13 @@
         <v>1234854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6429,13 @@
         <v>52568</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="H23" s="7">
         <v>53</v>
@@ -6423,13 +6444,13 @@
         <v>56396</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>416</v>
+        <v>427</v>
       </c>
       <c r="M23" s="7">
         <v>101</v>
@@ -6438,13 +6459,13 @@
         <v>108964</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>430</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6512,13 +6533,13 @@
         <v>753393</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>420</v>
+        <v>431</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>421</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>733</v>
@@ -6530,10 +6551,10 @@
         <v>59</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>423</v>
+        <v>434</v>
       </c>
       <c r="M25" s="7">
         <v>1460</v>
@@ -6542,13 +6563,13 @@
         <v>1556943</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>424</v>
+        <v>435</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>425</v>
+        <v>436</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>426</v>
+        <v>437</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6563,10 +6584,10 @@
         <v>23348</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>85</v>
@@ -6581,10 +6602,10 @@
         <v>67</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>429</v>
+        <v>440</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="M26" s="7">
         <v>43</v>
@@ -6593,13 +6614,13 @@
         <v>45965</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>431</v>
+        <v>442</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>432</v>
+        <v>443</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6667,13 +6688,13 @@
         <v>3108065</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>434</v>
+        <v>445</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="H28" s="7">
         <v>3132</v>
@@ -6682,13 +6703,13 @@
         <v>3331043</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="M28" s="7">
         <v>6097</v>
@@ -6697,13 +6718,13 @@
         <v>6439108</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6718,10 +6739,10 @@
         <v>279383</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>42</v>
@@ -6733,13 +6754,13 @@
         <v>210532</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>445</v>
+        <v>456</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>446</v>
+        <v>457</v>
       </c>
       <c r="M29" s="7">
         <v>462</v>
@@ -6748,13 +6769,13 @@
         <v>489915</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>448</v>
+        <v>459</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F86797E1-BE17-4A75-ADD4-2EE5ECFE2848}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD065791-D2DF-45E3-9FC5-FBF67FA6EB79}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6851,7 +6872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6955,46 +6976,46 @@
         <v>313</v>
       </c>
       <c r="D4" s="7">
-        <v>246467</v>
+        <v>295390</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>452</v>
+        <v>463</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>453</v>
+        <v>258</v>
       </c>
       <c r="H4" s="7">
         <v>504</v>
       </c>
       <c r="I4" s="7">
-        <v>253671</v>
+        <v>270490</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>455</v>
+        <v>143</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="M4" s="7">
         <v>817</v>
       </c>
       <c r="N4" s="7">
-        <v>500136</v>
+        <v>565879</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,46 +7027,46 @@
         <v>18</v>
       </c>
       <c r="D5" s="7">
-        <v>13831</v>
+        <v>16053</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>460</v>
+        <v>263</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="H5" s="7">
         <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>17732</v>
+        <v>19145</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>464</v>
+        <v>153</v>
       </c>
       <c r="M5" s="7">
         <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>31564</v>
+        <v>35198</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,7 +7078,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -7072,7 +7093,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -7087,7 +7108,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -7110,46 +7131,46 @@
         <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>367249</v>
+        <v>368862</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="H7" s="7">
         <v>570</v>
       </c>
       <c r="I7" s="7">
-        <v>438074</v>
+        <v>406280</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="M7" s="7">
         <v>834</v>
       </c>
       <c r="N7" s="7">
-        <v>805324</v>
+        <v>775142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7161,46 +7182,46 @@
         <v>118</v>
       </c>
       <c r="D8" s="7">
-        <v>152048</v>
+        <v>149528</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="H8" s="7">
         <v>147</v>
       </c>
       <c r="I8" s="7">
-        <v>116492</v>
+        <v>108689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="M8" s="7">
         <v>265</v>
       </c>
       <c r="N8" s="7">
-        <v>268540</v>
+        <v>258217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>484</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7212,7 +7233,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -7227,7 +7248,7 @@
         <v>717</v>
       </c>
       <c r="I9" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -7242,7 +7263,7 @@
         <v>1099</v>
       </c>
       <c r="N9" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -7265,46 +7286,46 @@
         <v>347</v>
       </c>
       <c r="D10" s="7">
-        <v>312685</v>
+        <v>306965</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>485</v>
+        <v>435</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="H10" s="7">
         <v>502</v>
       </c>
       <c r="I10" s="7">
-        <v>347549</v>
+        <v>325003</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="M10" s="7">
         <v>849</v>
       </c>
       <c r="N10" s="7">
-        <v>660233</v>
+        <v>631968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>492</v>
+        <v>303</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7316,46 +7337,46 @@
         <v>13</v>
       </c>
       <c r="D11" s="7">
-        <v>9555</v>
+        <v>9085</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>494</v>
+        <v>442</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>25735</v>
+        <v>24125</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="M11" s="7">
         <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>35291</v>
+        <v>33210</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>502</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,7 +7388,7 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -7382,7 +7403,7 @@
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -7397,7 +7418,7 @@
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -7420,46 +7441,46 @@
         <v>271</v>
       </c>
       <c r="D13" s="7">
-        <v>298278</v>
+        <v>288964</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>503</v>
+        <v>332</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="H13" s="7">
         <v>552</v>
       </c>
       <c r="I13" s="7">
-        <v>388147</v>
+        <v>382614</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M13" s="7">
         <v>823</v>
       </c>
       <c r="N13" s="7">
-        <v>686425</v>
+        <v>671578</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7471,46 +7492,46 @@
         <v>21</v>
       </c>
       <c r="D14" s="7">
-        <v>23962</v>
+        <v>23593</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>512</v>
+        <v>340</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
       </c>
       <c r="I14" s="7">
-        <v>40409</v>
+        <v>93104</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="M14" s="7">
         <v>68</v>
       </c>
       <c r="N14" s="7">
-        <v>64371</v>
+        <v>116696</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7522,7 +7543,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -7537,7 +7558,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -7552,7 +7573,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -7575,46 +7596,46 @@
         <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>192385</v>
+        <v>174765</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>164</v>
+        <v>525</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7">
         <v>482</v>
       </c>
       <c r="I16" s="7">
-        <v>225514</v>
+        <v>202901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>523</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M16" s="7">
         <v>754</v>
       </c>
       <c r="N16" s="7">
-        <v>417898</v>
+        <v>377666</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>14</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,46 +7647,46 @@
         <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>4363</v>
+        <v>3977</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>171</v>
+        <v>532</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>5982</v>
+        <v>5373</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>531</v>
+        <v>152</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>10346</v>
+        <v>9350</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>534</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,7 +7698,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -7692,7 +7713,7 @@
         <v>491</v>
       </c>
       <c r="I18" s="7">
-        <v>231496</v>
+        <v>208274</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -7707,7 +7728,7 @@
         <v>770</v>
       </c>
       <c r="N18" s="7">
-        <v>428244</v>
+        <v>387016</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -7730,46 +7751,46 @@
         <v>327</v>
       </c>
       <c r="D19" s="7">
-        <v>243167</v>
+        <v>236692</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>112</v>
+        <v>538</v>
       </c>
       <c r="H19" s="7">
         <v>422</v>
       </c>
       <c r="I19" s="7">
-        <v>255291</v>
+        <v>238127</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>539</v>
+        <v>133</v>
       </c>
       <c r="M19" s="7">
         <v>749</v>
       </c>
       <c r="N19" s="7">
-        <v>498458</v>
+        <v>474818</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7781,46 +7802,46 @@
         <v>44</v>
       </c>
       <c r="D20" s="7">
-        <v>34056</v>
+        <v>32944</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>545</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
       </c>
       <c r="I20" s="7">
-        <v>20331</v>
+        <v>18929</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>546</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M20" s="7">
         <v>82</v>
       </c>
       <c r="N20" s="7">
-        <v>54387</v>
+        <v>51874</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,7 +7853,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -7847,7 +7868,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -7862,7 +7883,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -7885,46 +7906,46 @@
         <v>543</v>
       </c>
       <c r="D22" s="7">
-        <v>565343</v>
+        <v>562430</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
         <v>852</v>
       </c>
       <c r="I22" s="7">
-        <v>730953</v>
+        <v>781331</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
         <v>1395</v>
       </c>
       <c r="N22" s="7">
-        <v>1296296</v>
+        <v>1343761</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7936,46 +7957,46 @@
         <v>56</v>
       </c>
       <c r="D23" s="7">
-        <v>62411</v>
+        <v>61849</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="H23" s="7">
         <v>108</v>
       </c>
       <c r="I23" s="7">
-        <v>73250</v>
+        <v>67934</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
       </c>
       <c r="N23" s="7">
-        <v>135661</v>
+        <v>129783</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7987,7 +8008,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -8002,7 +8023,7 @@
         <v>960</v>
       </c>
       <c r="I24" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -8017,7 +8038,7 @@
         <v>1559</v>
       </c>
       <c r="N24" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -8040,43 +8061,43 @@
         <v>639</v>
       </c>
       <c r="D25" s="7">
-        <v>722031</v>
+        <v>813405</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
         <v>916</v>
       </c>
       <c r="I25" s="7">
-        <v>753580</v>
+        <v>621940</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>1555</v>
       </c>
       <c r="N25" s="7">
-        <v>1475611</v>
+        <v>1435347</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>577</v>
@@ -8091,7 +8112,7 @@
         <v>123</v>
       </c>
       <c r="D26" s="7">
-        <v>137397</v>
+        <v>115315</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>578</v>
@@ -8106,7 +8127,7 @@
         <v>146</v>
       </c>
       <c r="I26" s="7">
-        <v>114854</v>
+        <v>95791</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>581</v>
@@ -8121,7 +8142,7 @@
         <v>269</v>
       </c>
       <c r="N26" s="7">
-        <v>252251</v>
+        <v>211105</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>584</v>
@@ -8130,7 +8151,7 @@
         <v>585</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8142,7 +8163,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -8157,7 +8178,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -8172,7 +8193,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -8195,28 +8216,28 @@
         <v>2976</v>
       </c>
       <c r="D28" s="7">
-        <v>2947604</v>
+        <v>3047473</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>587</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>588</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>589</v>
       </c>
       <c r="H28" s="7">
         <v>4800</v>
       </c>
       <c r="I28" s="7">
-        <v>3392778</v>
+        <v>3228685</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>591</v>
@@ -8225,7 +8246,7 @@
         <v>7776</v>
       </c>
       <c r="N28" s="7">
-        <v>6340381</v>
+        <v>6276158</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>592</v>
@@ -8246,7 +8267,7 @@
         <v>400</v>
       </c>
       <c r="D29" s="7">
-        <v>437624</v>
+        <v>412344</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>595</v>
@@ -8261,7 +8282,7 @@
         <v>563</v>
       </c>
       <c r="I29" s="7">
-        <v>414786</v>
+        <v>433089</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>598</v>
@@ -8270,22 +8291,22 @@
         <v>599</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>331</v>
+        <v>600</v>
       </c>
       <c r="M29" s="7">
         <v>963</v>
       </c>
       <c r="N29" s="7">
-        <v>852411</v>
+        <v>845433</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,7 +8318,7 @@
         <v>3376</v>
       </c>
       <c r="D30" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -8312,7 +8333,7 @@
         <v>5363</v>
       </c>
       <c r="I30" s="7">
-        <v>3807564</v>
+        <v>3661774</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -8327,7 +8348,7 @@
         <v>8739</v>
       </c>
       <c r="N30" s="7">
-        <v>7192792</v>
+        <v>7121591</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
